--- a/DataDict/Site/Template_Metered_data_dictionary_WaDE_August2020_v1.xlsx
+++ b/DataDict/Site/Template_Metered_data_dictionary_WaDE_August2020_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\DataDict\Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8834B7-134D-4557-B6AA-300B0616C8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF091C69-E755-4D26-AEA0-D8C65BDB882F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="10" r:id="rId1"/>
@@ -668,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -892,12 +892,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -980,102 +989,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2403CCCD-12BC-4468-8E1E-FDDA82B7D922}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1471,42 +1488,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1605,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E092E-37FC-44C0-9387-B111C2DA4E7B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1615,29 +1632,29 @@
     <col min="7" max="8" width="26.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:8" s="46" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1667,29 +1684,29 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:8" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1713,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E08C38F-342B-49D5-9FE3-F27BCCD90258}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1729,29 +1746,29 @@
     <col min="8" max="8" width="18.6640625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:8" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1781,29 +1798,29 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="57" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:8" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53">
         <v>1</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="53">
         <v>10</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="55" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1826,7 +1843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85242FD5-FD52-4C86-8C01-7E742284680E}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1841,23 +1858,23 @@
     <col min="7" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1881,23 +1898,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="60" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59">
+    <row r="3" spans="1:6" s="59" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="58">
         <v>17839</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="66" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1921,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72A969-622D-4936-987A-049101D32A6E}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1938,29 +1955,29 @@
     <col min="9" max="9" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="47" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:8" s="46" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1990,29 +2007,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="63" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:8" s="62" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="60">
         <v>0.5</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="63">
         <v>0.9</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="61" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2033,16 +2050,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57FC1D5-7413-4D4B-8F4B-A0DAC5C798A1}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="30" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="29" customWidth="1"/>
     <col min="4" max="5" width="9.109375" style="30"/>
     <col min="6" max="6" width="19.88671875" style="31" bestFit="1" customWidth="1"/>
@@ -2051,66 +2068,66 @@
     <col min="20" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="41" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="41" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>20</v>
       </c>
@@ -2168,67 +2185,71 @@
       <c r="S2" s="39" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59">
+      <c r="T2" s="76"/>
+      <c r="U2" s="77"/>
+    </row>
+    <row r="3" spans="1:21" s="64" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="58">
         <v>3703994</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="48">
-        <v>3658.1289999999999</v>
-      </c>
-      <c r="E3" s="48">
+      <c r="D3" s="47">
+        <v>36.581290000000003</v>
+      </c>
+      <c r="E3" s="47">
         <v>-106.700435</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="32"/>
@@ -2262,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF95F0A-A6D8-4C9F-9AAD-CE9D64114AA9}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D16:D17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2289,62 +2310,62 @@
     <col min="19" max="19" width="29.88671875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="47" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:19" s="46" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="68" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2407,62 +2428,62 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="70">
+    <row r="3" spans="1:19" s="64" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69">
         <v>1200</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="72">
         <v>2533</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="60">
         <v>0.15</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="60">
         <v>20</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Q3" s="61" t="s">
+      <c r="Q3" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="61">
+      <c r="R3" s="60">
         <v>2012</v>
       </c>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="71" t="s">
         <v>70</v>
       </c>
     </row>
